--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -65,9 +65,6 @@
     <t>5:26pm</t>
   </si>
   <si>
-    <t>zxy</t>
-  </si>
-  <si>
     <t>truck</t>
   </si>
   <si>
@@ -78,6 +75,12 @@
   </si>
   <si>
     <t>12:00nn</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>January 10, 2016</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +529,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -536,7 +556,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,19 +586,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +611,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="DRUNK DRIVING" sheetId="3" r:id="rId3"/>
     <sheet name="COUNTERFLOWING" sheetId="4" r:id="rId4"/>
     <sheet name="BEATING THE RED LIGHT" sheetId="5" r:id="rId5"/>
+    <sheet name="COLOR CODING" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>DATE</t>
   </si>
@@ -71,16 +72,37 @@
     <t>black</t>
   </si>
   <si>
-    <t>December 12, 2013</t>
-  </si>
-  <si>
-    <t>12:00nn</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
     <t>January 10, 2016</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Jan 12, 2015</t>
+  </si>
+  <si>
+    <t>12:00NN</t>
+  </si>
+  <si>
+    <t>Dec 13, 2016</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>July 3, 2016</t>
+  </si>
+  <si>
+    <t>3:00am</t>
+  </si>
+  <si>
+    <t>November 3, 2016</t>
+  </si>
+  <si>
+    <t>September 3, 2016</t>
   </si>
 </sst>
 </file>
@@ -420,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +512,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -500,7 +539,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +570,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -540,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -608,10 +647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +678,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -649,7 +705,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,4 +737,77 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\DLSU\5th Year 3rd Term\Syanade\Project\TraVIS-v1\dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>DATE</t>
   </si>
@@ -87,12 +92,6 @@
     <t>12:00NN</t>
   </si>
   <si>
-    <t>Dec 13, 2016</t>
-  </si>
-  <si>
-    <t>11:00AM</t>
-  </si>
-  <si>
     <t>July 3, 2016</t>
   </si>
   <si>
@@ -103,12 +102,39 @@
   </si>
   <si>
     <t>September 3, 2016</t>
+  </si>
+  <si>
+    <t>suv</t>
+  </si>
+  <si>
+    <t>July 2, 2016</t>
+  </si>
+  <si>
+    <t>3:26pm</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>August 2, 2015</t>
+  </si>
+  <si>
+    <t>8:00am</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,6 +176,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +260,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,7 +508,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +586,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -536,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +642,27 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -689,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -702,10 +782,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +814,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,10 +838,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,36 +872,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -53,9 +53,6 @@
     <t>abc123</t>
   </si>
   <si>
-    <t>4:15am</t>
-  </si>
-  <si>
     <t>def456</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>January 2, 2016</t>
   </si>
   <si>
-    <t>5:26pm</t>
-  </si>
-  <si>
     <t>truck</t>
   </si>
   <si>
@@ -89,15 +83,9 @@
     <t>Jan 12, 2015</t>
   </si>
   <si>
-    <t>12:00NN</t>
-  </si>
-  <si>
     <t>July 3, 2016</t>
   </si>
   <si>
-    <t>3:00am</t>
-  </si>
-  <si>
     <t>November 3, 2016</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>July 2, 2016</t>
   </si>
   <si>
-    <t>3:26pm</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
@@ -125,10 +110,10 @@
     <t>August 2, 2015</t>
   </si>
   <si>
-    <t>8:00am</t>
-  </si>
-  <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>March 2, 2014</t>
   </si>
 </sst>
 </file>
@@ -554,42 +539,42 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="E3">
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +587,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,36 +618,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +660,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,19 +690,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +715,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,19 +745,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,19 +801,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
+      <c r="E3">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -840,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,19 +874,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
-    <sheet name="SWERVING" sheetId="2" r:id="rId2"/>
-    <sheet name="DRUNK DRIVING" sheetId="3" r:id="rId3"/>
-    <sheet name="COUNTERFLOWING" sheetId="4" r:id="rId4"/>
-    <sheet name="BEATING THE RED LIGHT" sheetId="5" r:id="rId5"/>
-    <sheet name="COLOR CODING" sheetId="6" r:id="rId6"/>
+    <sheet name="DRIVING WITHOUT LICENSE" sheetId="7" r:id="rId2"/>
+    <sheet name="SWERVING" sheetId="2" r:id="rId3"/>
+    <sheet name="DRUNK DRIVING" sheetId="3" r:id="rId4"/>
+    <sheet name="COUNTERFLOWING" sheetId="4" r:id="rId5"/>
+    <sheet name="BEATING THE RED LIGHT" sheetId="5" r:id="rId6"/>
+    <sheet name="COLOR CODING" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -586,8 +587,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -710,7 +784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -765,7 +839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -838,11 +912,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="COUNTERFLOWING" sheetId="4" r:id="rId5"/>
     <sheet name="BEATING THE RED LIGHT" sheetId="5" r:id="rId6"/>
     <sheet name="COLOR CODING" sheetId="6" r:id="rId7"/>
+    <sheet name="DRIVING ON SLIPPERS" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -587,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +918,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,4 +967,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dat/Violation-Database.xlsx
+++ b/dat/Violation-Database.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" tabRatio="679" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPEEDING" sheetId="1" r:id="rId1"/>
     <sheet name="DRIVING WITHOUT LICENSE" sheetId="7" r:id="rId2"/>
-    <sheet name="SWERVING" sheetId="2" r:id="rId3"/>
+    <sheet name="NO SPARE TIRE" sheetId="2" r:id="rId3"/>
     <sheet name="DRUNK DRIVING" sheetId="3" r:id="rId4"/>
-    <sheet name="COUNTERFLOWING" sheetId="4" r:id="rId5"/>
+    <sheet name="OVERLOADING" sheetId="4" r:id="rId5"/>
     <sheet name="BEATING THE RED LIGHT" sheetId="5" r:id="rId6"/>
     <sheet name="COLOR CODING" sheetId="6" r:id="rId7"/>
-    <sheet name="DRIVING ON SLIPPERS" sheetId="9" r:id="rId8"/>
+    <sheet name="OVERNIGHT PARKING" sheetId="9" r:id="rId8"/>
+    <sheet name="SMOKE BELCHING" sheetId="11" r:id="rId9"/>
+    <sheet name="RECKLESS DRIVING" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>DATE</t>
   </si>
@@ -116,6 +118,12 @@
   </si>
   <si>
     <t>March 2, 2014</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>PENALTY</t>
   </si>
 </sst>
 </file>
@@ -492,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +519,7 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -527,8 +535,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -545,7 +559,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -562,7 +576,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -584,12 +598,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,9 +668,11 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -617,8 +688,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -635,7 +712,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -659,10 +736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +751,7 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -690,8 +767,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -708,7 +791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -732,10 +815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +829,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +845,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -787,10 +876,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +890,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -817,8 +906,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -842,10 +937,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +952,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -873,8 +968,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -891,7 +992,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -915,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +1031,7 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -946,8 +1047,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -971,15 +1078,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1102,69 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
